--- a/00_doc/01_设计思路/动态菜单.xlsx
+++ b/00_doc/01_设计思路/动态菜单.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="权限" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,13 +99,61 @@
   <si>
     <t>路由名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示：是否允许使用该功能，如果没有显示权限，后面的新建、修改等权限也无从谈起</t>
+  </si>
+  <si>
+    <t>新建：是否允许创建新记录，添加新表单</t>
+  </si>
+  <si>
+    <t>修改：是否允许修改已有数据</t>
+  </si>
+  <si>
+    <t>删除：是否允许删除已有数据</t>
+  </si>
+  <si>
+    <t>导出：是否允许把列表数据导出为EXCEL文件</t>
+  </si>
+  <si>
+    <t>授权维度</t>
+  </si>
+  <si>
+    <t>本系统权限分为部门权限、岗位权限、员工权限、角色权限、排除权限，分别从不同的维度进行设置。</t>
+  </si>
+  <si>
+    <t>具体到某位员工的权限为：（部门权限+ 岗位权限+ 员工权限+ 角色权限）- 排除权限</t>
+  </si>
+  <si>
+    <t>前四种权限为叠加关系优先级别相同，排除权限为相减关系，优先级别最高</t>
+  </si>
+  <si>
+    <t>1、部门权限：授权对象为部门，该部门下的员工继承拥有该部门的权限</t>
+  </si>
+  <si>
+    <t>2、岗位权限：授权对象为岗位，该岗位下的员工继承拥有该部门的权限</t>
+  </si>
+  <si>
+    <t>3、员工权限：授权对象为具体员工</t>
+  </si>
+  <si>
+    <t>4、角色权限：授权对象为角色，该角色下的员工继承拥有该部门的权限</t>
+  </si>
+  <si>
+    <t>授权原则：由粗到细，能通过部门设置，就不通过岗位设置，能通过岗位设置，就不通过人员设置。</t>
+  </si>
+  <si>
+    <t>5、排除权限：授权对象为员工， 只要设置了排除权限，不管前面的权限如何叠加，该员工都不会有该功能权限</t>
+  </si>
+  <si>
+    <t>权限划分</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +191,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -327,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,77 +402,89 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -707,247 +784,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="6"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="7"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="8" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="8" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="8" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="15" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="8" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="15" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="8" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="15" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="15" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="8" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="12"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="8" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="8" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="14" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D8:F8"/>
@@ -962,9 +1029,126 @@
     <mergeCell ref="B2:B15"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="29"/>
+    <col min="2" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+    </row>
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>